--- a/koma_sim3_py.xlsx
+++ b/koma_sim3_py.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ11"/>
+  <dimension ref="F1:DU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -454,1716 +454,1716 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DU1" s="1" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>-0.008294371718311412</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>-0.002698099081924358</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.3630468358852901</v>
-      </c>
       <c r="F2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.01346496373607323</v>
+        <v>-0.008294371718311412</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>-0.02391169791675554</v>
+        <v>-0.002698099081924358</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.4267655759788831</v>
+        <v>0.3630468358852901</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>-0.008570935713985386</v>
+        <v>0.01346496373607323</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>-0.007494081466049426</v>
+        <v>-0.02391169791675554</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>-0.04811088632597065</v>
+        <v>0.4267655759788831</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>-0.006701026088654327</v>
+        <v>-0.008570935713985386</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.01543523440374515</v>
+        <v>-0.007494081466049426</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.004735029222962896</v>
+        <v>-0.04811088632597065</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>0.01581217658642592</v>
+        <v>-0.006701026088654327</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>-0.01036229374738497</v>
+        <v>-0.01543523440374515</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>0.01221991473267558</v>
+        <v>-0.004735029222962896</v>
       </c>
       <c r="Z2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>0.002386499037354318</v>
+        <v>0.01581217658642592</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>-0.001346258073540442</v>
+        <v>-0.01036229374738497</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>0.07526523935649107</v>
+        <v>0.01221991473267558</v>
       </c>
       <c r="AE2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>-0.003628196029590923</v>
+        <v>0.002386499037354318</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>-0.01658956333540111</v>
+        <v>-0.001346258073540442</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>0.08977647074504687</v>
+        <v>0.07526523935649107</v>
       </c>
       <c r="AJ2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>0.00529239099773493</v>
+        <v>-0.003628196029590923</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>0.01353477074585947</v>
+        <v>-0.01658956333540111</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>0.1039876159206499</v>
+        <v>0.08977647074504687</v>
       </c>
       <c r="AO2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>-0.003985323243455039</v>
+        <v>0.00529239099773493</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>-0.006258338883588286</v>
+        <v>0.01353477074585947</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>0.1606352339493631</v>
+        <v>0.1039876159206499</v>
       </c>
       <c r="AT2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>0.003822086601808891</v>
+        <v>-0.003985323243455039</v>
       </c>
       <c r="AV2" s="1" t="n">
-        <v>0.001118677994370523</v>
+        <v>-0.006258338883588286</v>
       </c>
       <c r="AW2" s="1" t="n">
-        <v>0.1626524698061909</v>
+        <v>0.1606352339493631</v>
       </c>
       <c r="AY2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AZ2" s="1" t="n">
-        <v>-0.01320719927548504</v>
+        <v>0.003822086601808891</v>
       </c>
       <c r="BA2" s="1" t="n">
-        <v>0.01754540950809736</v>
+        <v>0.001118677994370523</v>
       </c>
       <c r="BB2" s="1" t="n">
-        <v>0.2617174070260829</v>
+        <v>0.1626524698061909</v>
       </c>
       <c r="BD2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="BE2" s="1" t="n">
-        <v>-0.02087995204944824</v>
+        <v>-0.01320719927548504</v>
       </c>
       <c r="BF2" s="1" t="n">
-        <v>-0.004351808085454076</v>
+        <v>0.01754540950809736</v>
       </c>
       <c r="BG2" s="1" t="n">
-        <v>0.3146399528206316</v>
+        <v>0.2617174070260829</v>
       </c>
       <c r="BI2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="BJ2" s="1" t="n">
-        <v>0.003084858626590436</v>
+        <v>-0.02087995204944824</v>
       </c>
       <c r="BK2" s="1" t="n">
-        <v>-0.001861421649252841</v>
+        <v>-0.004351808085454076</v>
       </c>
       <c r="BL2" s="1" t="n">
-        <v>0.3608642010456362</v>
+        <v>0.3146399528206316</v>
       </c>
       <c r="BN2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="BO2" s="1" t="n">
-        <v>-0.0005207133858340788</v>
+        <v>0.003084858626590436</v>
       </c>
       <c r="BP2" s="1" t="n">
-        <v>-0.01746351908916039</v>
+        <v>-0.001861421649252841</v>
       </c>
       <c r="BQ2" s="1" t="n">
-        <v>-0.0340274072543639</v>
+        <v>0.3608642010456362</v>
       </c>
       <c r="BS2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="BT2" s="1" t="n">
-        <v>0.005876439180916982</v>
+        <v>-0.0005207133858340788</v>
       </c>
       <c r="BU2" s="1" t="n">
-        <v>0.0007427891513352826</v>
+        <v>-0.01746351908916039</v>
       </c>
       <c r="BV2" s="1" t="n">
-        <v>-0.02304522378960477</v>
+        <v>-0.0340274072543639</v>
       </c>
       <c r="BX2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="BY2" s="1" t="n">
-        <v>0.01640061911702523</v>
+        <v>0.005876439180916982</v>
       </c>
       <c r="BZ2" s="1" t="n">
-        <v>0.0004063901305230351</v>
+        <v>0.0007427891513352826</v>
       </c>
       <c r="CA2" s="1" t="n">
-        <v>0.02549349300501073</v>
+        <v>-0.02304522378960477</v>
       </c>
       <c r="CC2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="CD2" s="1" t="n">
-        <v>0.01359356389551828</v>
+        <v>0.01640061911702523</v>
       </c>
       <c r="CE2" s="1" t="n">
-        <v>0.008270179291255579</v>
+        <v>0.0004063901305230351</v>
       </c>
       <c r="CF2" s="1" t="n">
-        <v>0.01956965274207773</v>
+        <v>0.02549349300501073</v>
       </c>
       <c r="CH2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="CI2" s="1" t="n">
-        <v>0.01931850338877351</v>
+        <v>0.01359356389551828</v>
       </c>
       <c r="CJ2" s="1" t="n">
-        <v>-0.0172732163295605</v>
+        <v>0.008270179291255579</v>
       </c>
       <c r="CK2" s="1" t="n">
-        <v>0.05316442526979854</v>
+        <v>0.01956965274207773</v>
       </c>
       <c r="CM2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="CN2" s="1" t="n">
-        <v>-0.01865603495596135</v>
+        <v>0.01931850338877351</v>
       </c>
       <c r="CO2" s="1" t="n">
-        <v>-0.01679788773670129</v>
+        <v>-0.0172732163295605</v>
       </c>
       <c r="CP2" s="1" t="n">
-        <v>0.06880846925597017</v>
+        <v>0.05316442526979854</v>
       </c>
       <c r="CR2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="CS2" s="1" t="n">
-        <v>0.0004527537743567293</v>
+        <v>-0.01865603495596135</v>
       </c>
       <c r="CT2" s="1" t="n">
-        <v>0.01575525243269361</v>
+        <v>-0.01679788773670129</v>
       </c>
       <c r="CU2" s="1" t="n">
-        <v>0.1393918331914658</v>
+        <v>0.06880846925597017</v>
       </c>
       <c r="CW2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="CX2" s="1" t="n">
-        <v>0.0001854182693908958</v>
+        <v>0.0004527537743567293</v>
       </c>
       <c r="CY2" s="1" t="n">
-        <v>-0.01877191534600173</v>
+        <v>0.01575525243269361</v>
       </c>
       <c r="CZ2" s="1" t="n">
-        <v>0.1529652091399151</v>
+        <v>0.1393918331914658</v>
       </c>
       <c r="DB2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="DC2" s="1" t="n">
-        <v>0.01847323712183798</v>
+        <v>0.0001854182693908958</v>
       </c>
       <c r="DD2" s="1" t="n">
-        <v>-0.001640057055415985</v>
+        <v>-0.01877191534600173</v>
       </c>
       <c r="DE2" s="1" t="n">
-        <v>0.2212141693922669</v>
+        <v>0.1529652091399151</v>
       </c>
       <c r="DG2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="DH2" s="1" t="n">
-        <v>0.001403515074504081</v>
+        <v>0.01847323712183798</v>
       </c>
       <c r="DI2" s="1" t="n">
-        <v>-0.005171809131073421</v>
+        <v>-0.001640057055415985</v>
       </c>
       <c r="DJ2" s="1" t="n">
-        <v>0.2811071080832388</v>
+        <v>0.2212141693922669</v>
       </c>
       <c r="DL2" s="1" t="n">
         <v>40</v>
       </c>
       <c r="DM2" s="1" t="n">
+        <v>0.001403515074504081</v>
+      </c>
+      <c r="DN2" s="1" t="n">
+        <v>-0.005171809131073421</v>
+      </c>
+      <c r="DO2" s="1" t="n">
+        <v>0.2811071080832388</v>
+      </c>
+      <c r="DQ2" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="DR2" s="1" t="n">
         <v>-0.005898431556110855</v>
       </c>
-      <c r="DN2" s="1" t="n">
+      <c r="DS2" s="1" t="n">
         <v>0.006848843170435468</v>
       </c>
-      <c r="DO2" s="1" t="n">
+      <c r="DT2" s="1" t="n">
         <v>0.2926131024029792</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0.009113987062964013</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>-0.002174058810166417</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.3358538120533389</v>
-      </c>
       <c r="F3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.009163481528081323</v>
+        <v>0.009113987062964013</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-0.005150853649047471</v>
+        <v>-0.002174058810166417</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.3791997280707737</v>
+        <v>0.3358538120533389</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>-0.0009705374230870728</v>
+        <v>0.009163481528081323</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>-0.0003169527489870392</v>
+        <v>-0.005150853649047471</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>0.03191443490843744</v>
+        <v>0.3791997280707737</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>-0.01014865235729322</v>
+        <v>-0.0009705374230870728</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.003377701413219416</v>
+        <v>-0.0003169527489870392</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0.05740234172125858</v>
+        <v>0.03191443490843744</v>
       </c>
       <c r="U3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.01987658371241931</v>
+        <v>-0.01014865235729322</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>-0.01432861062394022</v>
+        <v>-0.003377701413219416</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>0.06344793359439525</v>
+        <v>0.05740234172125858</v>
       </c>
       <c r="Z3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>-0.0004014895132582275</v>
+        <v>0.01987658371241931</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>0.002249055056382546</v>
+        <v>-0.01432861062394022</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>0.0831881443981746</v>
+        <v>0.06344793359439525</v>
       </c>
       <c r="AE3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>-0.003179205191171969</v>
+        <v>-0.0004014895132582275</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>0.003509328744397213</v>
+        <v>0.002249055056382546</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>0.1264195232636226</v>
+        <v>0.0831881443981746</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>0.01741184349906094</v>
+        <v>-0.003179205191171969</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>0.007578321952199942</v>
+        <v>0.003509328744397213</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>0.1917470282798845</v>
+        <v>0.1264195232636226</v>
       </c>
       <c r="AO3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>0.003947085887635064</v>
+        <v>0.01741184349906094</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>-0.003775684583065163</v>
+        <v>0.007578321952199942</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>0.2327266734599193</v>
+        <v>0.1917470282798845</v>
       </c>
       <c r="AT3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>-0.02155421109535542</v>
+        <v>0.003947085887635064</v>
       </c>
       <c r="AV3" s="1" t="n">
-        <v>-0.009073837620773278</v>
+        <v>-0.003775684583065163</v>
       </c>
       <c r="AW3" s="1" t="n">
-        <v>0.1972927478504812</v>
+        <v>0.2327266734599193</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AZ3" s="1" t="n">
-        <v>-0.02437943830726413</v>
+        <v>-0.02155421109535542</v>
       </c>
       <c r="BA3" s="1" t="n">
-        <v>-0.006095989489984971</v>
+        <v>-0.009073837620773278</v>
       </c>
       <c r="BB3" s="1" t="n">
-        <v>0.2698505012582942</v>
+        <v>0.1972927478504812</v>
       </c>
       <c r="BD3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BE3" s="1" t="n">
-        <v>-0.01407846213408941</v>
+        <v>-0.02437943830726413</v>
       </c>
       <c r="BF3" s="1" t="n">
-        <v>0.001618652556101908</v>
+        <v>-0.006095989489984971</v>
       </c>
       <c r="BG3" s="1" t="n">
-        <v>0.2765409132556859</v>
+        <v>0.2698505012582942</v>
       </c>
       <c r="BI3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BJ3" s="1" t="n">
-        <v>-0.01069157803204967</v>
+        <v>-0.01407846213408941</v>
       </c>
       <c r="BK3" s="1" t="n">
-        <v>0.01606615154450495</v>
+        <v>0.001618652556101908</v>
       </c>
       <c r="BL3" s="1" t="n">
-        <v>0.3410414558701325</v>
+        <v>0.2765409132556859</v>
       </c>
       <c r="BN3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BO3" s="1" t="n">
-        <v>0.02183399034857685</v>
+        <v>-0.01069157803204967</v>
       </c>
       <c r="BP3" s="1" t="n">
-        <v>-0.01631040010715776</v>
+        <v>0.01606615154450495</v>
       </c>
       <c r="BQ3" s="1" t="n">
-        <v>0.007428940447357492</v>
+        <v>0.3410414558701325</v>
       </c>
       <c r="BS3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BT3" s="1" t="n">
-        <v>0.005144083748654681</v>
+        <v>0.02183399034857685</v>
       </c>
       <c r="BU3" s="1" t="n">
-        <v>0.01170874097892297</v>
+        <v>-0.01631040010715776</v>
       </c>
       <c r="BV3" s="1" t="n">
-        <v>0.03415893001472235</v>
+        <v>0.007428940447357492</v>
       </c>
       <c r="BX3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BY3" s="1" t="n">
-        <v>-0.006192870701734577</v>
+        <v>0.005144083748654681</v>
       </c>
       <c r="BZ3" s="1" t="n">
-        <v>-0.005574180299613822</v>
+        <v>0.01170874097892297</v>
       </c>
       <c r="CA3" s="1" t="n">
-        <v>0.03642527314873262</v>
+        <v>0.03415893001472235</v>
       </c>
       <c r="CC3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CD3" s="1" t="n">
-        <v>0.007657489995297911</v>
+        <v>-0.006192870701734577</v>
       </c>
       <c r="CE3" s="1" t="n">
-        <v>0.01520261704911734</v>
+        <v>-0.005574180299613822</v>
       </c>
       <c r="CF3" s="1" t="n">
-        <v>0.04056884846279831</v>
+        <v>0.03642527314873262</v>
       </c>
       <c r="CH3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CI3" s="1" t="n">
-        <v>-0.000436237629424546</v>
+        <v>0.007657489995297911</v>
       </c>
       <c r="CJ3" s="1" t="n">
-        <v>-0.01838802203603614</v>
+        <v>0.01520261704911734</v>
       </c>
       <c r="CK3" s="1" t="n">
-        <v>0.07566332939239465</v>
+        <v>0.04056884846279831</v>
       </c>
       <c r="CM3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CN3" s="1" t="n">
-        <v>0.00209886375929912</v>
+        <v>-0.000436237629424546</v>
       </c>
       <c r="CO3" s="1" t="n">
-        <v>-0.01085474894921763</v>
+        <v>-0.01838802203603614</v>
       </c>
       <c r="CP3" s="1" t="n">
-        <v>0.1229346222872687</v>
+        <v>0.07566332939239465</v>
       </c>
       <c r="CR3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CS3" s="1" t="n">
-        <v>0.008002840293282635</v>
+        <v>0.00209886375929912</v>
       </c>
       <c r="CT3" s="1" t="n">
-        <v>-0.009401688210710132</v>
+        <v>-0.01085474894921763</v>
       </c>
       <c r="CU3" s="1" t="n">
-        <v>0.1472629096815863</v>
+        <v>0.1229346222872687</v>
       </c>
       <c r="CW3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="CX3" s="1" t="n">
-        <v>-0.01438849054105338</v>
+        <v>0.008002840293282635</v>
       </c>
       <c r="CY3" s="1" t="n">
-        <v>0.004402447004658571</v>
+        <v>-0.009401688210710132</v>
       </c>
       <c r="CZ3" s="1" t="n">
-        <v>0.1676255929190684</v>
+        <v>0.1472629096815863</v>
       </c>
       <c r="DB3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="DC3" s="1" t="n">
-        <v>0.00754884548795483</v>
+        <v>-0.01438849054105338</v>
       </c>
       <c r="DD3" s="1" t="n">
-        <v>-0.02277921813242231</v>
+        <v>0.004402447004658571</v>
       </c>
       <c r="DE3" s="1" t="n">
-        <v>0.2362364803107845</v>
+        <v>0.1676255929190684</v>
       </c>
       <c r="DG3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="DH3" s="1" t="n">
-        <v>-0.01160334517895589</v>
+        <v>0.00754884548795483</v>
       </c>
       <c r="DI3" s="1" t="n">
-        <v>-0.000690170237075914</v>
+        <v>-0.02277921813242231</v>
       </c>
       <c r="DJ3" s="1" t="n">
-        <v>0.229127748832358</v>
+        <v>0.2362364803107845</v>
       </c>
       <c r="DL3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="DM3" s="1" t="n">
+        <v>-0.01160334517895589</v>
+      </c>
+      <c r="DN3" s="1" t="n">
+        <v>-0.000690170237075914</v>
+      </c>
+      <c r="DO3" s="1" t="n">
+        <v>0.229127748832358</v>
+      </c>
+      <c r="DQ3" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="DR3" s="1" t="n">
         <v>-0.01015121259439554</v>
       </c>
-      <c r="DN3" s="1" t="n">
+      <c r="DS3" s="1" t="n">
         <v>-0.006315540360340883</v>
       </c>
-      <c r="DO3" s="1" t="n">
+      <c r="DT3" s="1" t="n">
         <v>0.2584658213618531</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0.002594481816076637</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0.0102488046113524</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.2984244918322821</v>
-      </c>
       <c r="F4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>-0.0006732901555288414</v>
+        <v>0.002594481816076637</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>-0.01332714198255874</v>
+        <v>0.0102488046113524</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.3027498232132217</v>
+        <v>0.2984244918322821</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.01995529142205734</v>
+        <v>-0.0006732901555288414</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>-0.01967140483676107</v>
+        <v>-0.01332714198255874</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.02922836826143655</v>
+        <v>0.3027498232132217</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>-0.004294210140227524</v>
+        <v>0.01995529142205734</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.002429021148772087</v>
+        <v>-0.01967140483676107</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.08316472727913167</v>
+        <v>0.02922836826143655</v>
       </c>
       <c r="U4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.001977118243295481</v>
+        <v>-0.004294210140227524</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>-0.001263018186594364</v>
+        <v>0.002429021148772087</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>0.08085054551340873</v>
+        <v>0.08316472727913167</v>
       </c>
       <c r="Z4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-0.004765899763177988</v>
+        <v>0.001977118243295481</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>0.007580943158569735</v>
+        <v>-0.001263018186594364</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>0.1015879345618049</v>
+        <v>0.08085054551340873</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>-0.01326577080259824</v>
+        <v>-0.004765899763177988</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>-0.02959226328890284</v>
+        <v>0.007580943158569735</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>0.1148525408667588</v>
+        <v>0.1015879345618049</v>
       </c>
       <c r="AJ4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>0.009744321669857944</v>
+        <v>-0.01326577080259824</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>0.0010675174484355</v>
+        <v>-0.02959226328890284</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>0.1356206883628584</v>
+        <v>0.1148525408667588</v>
       </c>
       <c r="AO4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>0.2177345919536287</v>
+        <v>0.009744321669857944</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>0.1897885420328372</v>
+        <v>0.0010675174484355</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>-1.048303963088931</v>
+        <v>0.1356206883628584</v>
       </c>
       <c r="AT4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>-0.001127321686165377</v>
+        <v>0.2177345919536287</v>
       </c>
       <c r="AV4" s="1" t="n">
-        <v>-0.01743055061699305</v>
+        <v>0.1897885420328372</v>
       </c>
       <c r="AW4" s="1" t="n">
-        <v>0.1624941336638811</v>
+        <v>-1.048303963088931</v>
       </c>
       <c r="AY4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AZ4" s="1" t="n">
-        <v>-0.02397807917110204</v>
+        <v>-0.001127321686165377</v>
       </c>
       <c r="BA4" s="1" t="n">
-        <v>-0.006311854207029181</v>
+        <v>-0.01743055061699305</v>
       </c>
       <c r="BB4" s="1" t="n">
-        <v>0.2224537580661507</v>
+        <v>0.1624941336638811</v>
       </c>
       <c r="BD4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="BE4" s="1" t="n">
-        <v>-0.009532007861494499</v>
+        <v>-0.02397807917110204</v>
       </c>
       <c r="BF4" s="1" t="n">
-        <v>-0.006195108807209406</v>
+        <v>-0.006311854207029181</v>
       </c>
       <c r="BG4" s="1" t="n">
-        <v>0.2663700472526765</v>
+        <v>0.2224537580661507</v>
       </c>
       <c r="BI4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="BJ4" s="1" t="n">
-        <v>-0.01671732561437268</v>
+        <v>-0.009532007861494499</v>
       </c>
       <c r="BK4" s="1" t="n">
-        <v>0.01692267635279004</v>
+        <v>-0.006195108807209406</v>
       </c>
       <c r="BL4" s="1" t="n">
-        <v>0.2664249790525761</v>
+        <v>0.2663700472526765</v>
       </c>
       <c r="BN4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="BO4" s="1" t="n">
-        <v>0.02878148507668764</v>
+        <v>-0.01671732561437268</v>
       </c>
       <c r="BP4" s="1" t="n">
-        <v>-0.0009493646972123994</v>
+        <v>0.01692267635279004</v>
       </c>
       <c r="BQ4" s="1" t="n">
-        <v>0.05564879187905134</v>
+        <v>0.2664249790525761</v>
       </c>
       <c r="BS4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="BT4" s="1" t="n">
-        <v>0.002114848816158305</v>
+        <v>0.02878148507668764</v>
       </c>
       <c r="BU4" s="1" t="n">
-        <v>-0.03343922320731801</v>
+        <v>-0.0009493646972123994</v>
       </c>
       <c r="BV4" s="1" t="n">
-        <v>0.02697905849460435</v>
+        <v>0.05564879187905134</v>
       </c>
       <c r="BX4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="BY4" s="1" t="n">
-        <v>0.01151066412626639</v>
+        <v>0.002114848816158305</v>
       </c>
       <c r="BZ4" s="1" t="n">
-        <v>-0.03165346732633921</v>
+        <v>-0.03343922320731801</v>
       </c>
       <c r="CA4" s="1" t="n">
-        <v>0.097347881445697</v>
+        <v>0.02697905849460435</v>
       </c>
       <c r="CC4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="CD4" s="1" t="n">
-        <v>-0.002087960358846801</v>
+        <v>0.01151066412626639</v>
       </c>
       <c r="CE4" s="1" t="n">
-        <v>0.0297786910561281</v>
+        <v>-0.03165346732633921</v>
       </c>
       <c r="CF4" s="1" t="n">
-        <v>0.1032006756747312</v>
+        <v>0.097347881445697</v>
       </c>
       <c r="CH4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="CI4" s="1" t="n">
-        <v>0.01965918680089847</v>
+        <v>-0.002087960358846801</v>
       </c>
       <c r="CJ4" s="1" t="n">
-        <v>0.007043955092060252</v>
+        <v>0.0297786910561281</v>
       </c>
       <c r="CK4" s="1" t="n">
-        <v>0.09375870838581513</v>
+        <v>0.1032006756747312</v>
       </c>
       <c r="CM4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="CN4" s="1" t="n">
-        <v>-0.0176033731791921</v>
+        <v>0.01965918680089847</v>
       </c>
       <c r="CO4" s="1" t="n">
-        <v>0.01985273714150386</v>
+        <v>0.007043955092060252</v>
       </c>
       <c r="CP4" s="1" t="n">
-        <v>0.1230782303762306</v>
+        <v>0.09375870838581513</v>
       </c>
       <c r="CR4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="CS4" s="1" t="n">
-        <v>0.1284941844223365</v>
+        <v>-0.0176033731791921</v>
       </c>
       <c r="CT4" s="1" t="n">
-        <v>0.04297363205484448</v>
+        <v>0.01985273714150386</v>
       </c>
       <c r="CU4" s="1" t="n">
-        <v>-1.40204825180599</v>
+        <v>0.1230782303762306</v>
       </c>
       <c r="CW4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="CX4" s="1" t="n">
-        <v>0.02396910604635848</v>
+        <v>0.1284941844223365</v>
       </c>
       <c r="CY4" s="1" t="n">
-        <v>-0.01594763981599955</v>
+        <v>0.04297363205484448</v>
       </c>
       <c r="CZ4" s="1" t="n">
-        <v>0.1787835455832047</v>
+        <v>-1.40204825180599</v>
       </c>
       <c r="DB4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="DC4" s="1" t="n">
-        <v>-0.02885322614968781</v>
+        <v>0.02396910604635848</v>
       </c>
       <c r="DD4" s="1" t="n">
-        <v>0.005787736017185689</v>
+        <v>-0.01594763981599955</v>
       </c>
       <c r="DE4" s="1" t="n">
-        <v>0.1927963117589516</v>
+        <v>0.1787835455832047</v>
       </c>
       <c r="DG4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="DH4" s="1" t="n">
-        <v>-0.0137257968917968</v>
+        <v>-0.02885322614968781</v>
       </c>
       <c r="DI4" s="1" t="n">
-        <v>0.0397589852500832</v>
+        <v>0.005787736017185689</v>
       </c>
       <c r="DJ4" s="1" t="n">
-        <v>0.1746221035228398</v>
+        <v>0.1927963117589516</v>
       </c>
       <c r="DL4" s="1" t="n">
         <v>50</v>
       </c>
       <c r="DM4" s="1" t="n">
+        <v>-0.0137257968917968</v>
+      </c>
+      <c r="DN4" s="1" t="n">
+        <v>0.0397589852500832</v>
+      </c>
+      <c r="DO4" s="1" t="n">
+        <v>0.1746221035228398</v>
+      </c>
+      <c r="DQ4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="DR4" s="1" t="n">
         <v>-0.005613535056739866</v>
       </c>
-      <c r="DN4" s="1" t="n">
+      <c r="DS4" s="1" t="n">
         <v>0.001258909183667761</v>
       </c>
-      <c r="DO4" s="1" t="n">
+      <c r="DT4" s="1" t="n">
         <v>0.2613943750625891</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0.01669759343465164</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0.002114180834155523</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.2558008789608012</v>
-      </c>
       <c r="F5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>-0.0156744416506493</v>
+        <v>0.01669759343465164</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>5.282870771152024e-05</v>
+        <v>0.002114180834155523</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.2920211425460242</v>
+        <v>0.2558008789608012</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0.01043859328673276</v>
+        <v>-0.0156744416506493</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>-0.01791715728569304</v>
+        <v>5.282870771152024e-05</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.06650757958346293</v>
+        <v>0.2920211425460242</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>-0.007730254467870649</v>
+        <v>0.01043859328673276</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.01042912026570322</v>
+        <v>-0.01791715728569304</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.02716960318944298</v>
+        <v>0.06650757958346293</v>
       </c>
       <c r="U5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>-0.02025601303083365</v>
+        <v>-0.007730254467870649</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.02773274926802914</v>
+        <v>0.01042912026570322</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.06694842381402748</v>
+        <v>0.02716960318944298</v>
       </c>
       <c r="Z5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>-0.004440654112489274</v>
+        <v>-0.02025601303083365</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>-0.007155844967891048</v>
+        <v>-0.02773274926802914</v>
       </c>
       <c r="AC5" s="1" t="n">
-        <v>0.1024467964726217</v>
+        <v>0.06694842381402748</v>
       </c>
       <c r="AE5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-0.01808795269632309</v>
+        <v>-0.004440654112489274</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>-0.007757214160102844</v>
+        <v>-0.007155844967891048</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.1222709550566471</v>
+        <v>0.1024467964726217</v>
       </c>
       <c r="AJ5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>-0.02860171241669635</v>
+        <v>-0.01808795269632309</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.0008487940983964517</v>
+        <v>-0.007757214160102844</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.1397440960628843</v>
+        <v>0.1222709550566471</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="AP5" s="1" t="n">
-        <v>0.01021879739775593</v>
+        <v>-0.02860171241669635</v>
       </c>
       <c r="AQ5" s="1" t="n">
-        <v>-0.003324623873775423</v>
+        <v>0.0008487940983964517</v>
       </c>
       <c r="AR5" s="1" t="n">
-        <v>0.1702704455802653</v>
+        <v>0.1397440960628843</v>
       </c>
       <c r="AT5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="AU5" s="1" t="n">
-        <v>0.007466553731585387</v>
+        <v>0.01021879739775593</v>
       </c>
       <c r="AV5" s="1" t="n">
-        <v>0.001385572087415401</v>
+        <v>-0.003324623873775423</v>
       </c>
       <c r="AW5" s="1" t="n">
-        <v>0.198951430760261</v>
+        <v>0.1702704455802653</v>
       </c>
       <c r="AY5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="AZ5" s="1" t="n">
-        <v>0.003481042617631562</v>
+        <v>0.007466553731585387</v>
       </c>
       <c r="BA5" s="1" t="n">
-        <v>-0.000531780986651952</v>
+        <v>0.001385572087415401</v>
       </c>
       <c r="BB5" s="1" t="n">
-        <v>0.2356124309280992</v>
+        <v>0.198951430760261</v>
       </c>
       <c r="BD5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BE5" s="1" t="n">
-        <v>-0.006014037243993546</v>
+        <v>0.003481042617631562</v>
       </c>
       <c r="BF5" s="1" t="n">
-        <v>0.00975079267524412</v>
+        <v>-0.000531780986651952</v>
       </c>
       <c r="BG5" s="1" t="n">
-        <v>0.1931869936200588</v>
+        <v>0.2356124309280992</v>
       </c>
       <c r="BI5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BJ5" s="1" t="n">
-        <v>-0.01707750805330691</v>
+        <v>-0.006014037243993546</v>
       </c>
       <c r="BK5" s="1" t="n">
-        <v>-0.0003057089048577319</v>
+        <v>0.00975079267524412</v>
       </c>
       <c r="BL5" s="1" t="n">
-        <v>0.2288271869816995</v>
+        <v>0.1931869936200588</v>
       </c>
       <c r="BN5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BO5" s="1" t="n">
-        <v>-0.01183758221930132</v>
+        <v>-0.01707750805330691</v>
       </c>
       <c r="BP5" s="1" t="n">
-        <v>0.003187538822836402</v>
+        <v>-0.0003057089048577319</v>
       </c>
       <c r="BQ5" s="1" t="n">
-        <v>0.04718905977760911</v>
+        <v>0.2288271869816995</v>
       </c>
       <c r="BS5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BT5" s="1" t="n">
-        <v>-0.00779821584123197</v>
+        <v>-0.01183758221930132</v>
       </c>
       <c r="BU5" s="1" t="n">
-        <v>0.004068726448034157</v>
+        <v>0.003187538822836402</v>
       </c>
       <c r="BV5" s="1" t="n">
-        <v>0.04629828787494173</v>
+        <v>0.04718905977760911</v>
       </c>
       <c r="BX5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="BY5" s="1" t="n">
-        <v>-0.01509702142432616</v>
+        <v>-0.00779821584123197</v>
       </c>
       <c r="BZ5" s="1" t="n">
-        <v>0.006643392537570615</v>
+        <v>0.004068726448034157</v>
       </c>
       <c r="CA5" s="1" t="n">
-        <v>0.08902521458935977</v>
+        <v>0.04629828787494173</v>
       </c>
       <c r="CC5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="CD5" s="1" t="n">
-        <v>0.003122176461430521</v>
+        <v>-0.01509702142432616</v>
       </c>
       <c r="CE5" s="1" t="n">
-        <v>-0.002073476626072596</v>
+        <v>0.006643392537570615</v>
       </c>
       <c r="CF5" s="1" t="n">
-        <v>0.0953234438502672</v>
+        <v>0.08902521458935977</v>
       </c>
       <c r="CH5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="CI5" s="1" t="n">
-        <v>0.009366452161257137</v>
+        <v>0.003122176461430521</v>
       </c>
       <c r="CJ5" s="1" t="n">
-        <v>-0.007441884882561898</v>
+        <v>-0.002073476626072596</v>
       </c>
       <c r="CK5" s="1" t="n">
-        <v>0.08715277796337413</v>
+        <v>0.0953234438502672</v>
       </c>
       <c r="CM5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="CN5" s="1" t="n">
-        <v>0.002970867963919744</v>
+        <v>0.009366452161257137</v>
       </c>
       <c r="CO5" s="1" t="n">
-        <v>-0.001223070627881946</v>
+        <v>-0.007441884882561898</v>
       </c>
       <c r="CP5" s="1" t="n">
-        <v>0.1179983688348248</v>
+        <v>0.08715277796337413</v>
       </c>
       <c r="CR5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="CS5" s="1" t="n">
-        <v>-0.02840736723960586</v>
+        <v>0.002970867963919744</v>
       </c>
       <c r="CT5" s="1" t="n">
-        <v>0.01046567230663592</v>
+        <v>-0.001223070627881946</v>
       </c>
       <c r="CU5" s="1" t="n">
-        <v>0.09766217519091247</v>
+        <v>0.1179983688348248</v>
       </c>
       <c r="CW5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="CX5" s="1" t="n">
-        <v>0.01393301105919584</v>
+        <v>-0.02840736723960586</v>
       </c>
       <c r="CY5" s="1" t="n">
-        <v>-0.01839011059895742</v>
+        <v>0.01046567230663592</v>
       </c>
       <c r="CZ5" s="1" t="n">
-        <v>0.1316453037193762</v>
+        <v>0.09766217519091247</v>
       </c>
       <c r="DB5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="DC5" s="1" t="n">
-        <v>0.007952191066237801</v>
+        <v>0.01393301105919584</v>
       </c>
       <c r="DD5" s="1" t="n">
-        <v>-0.009120165301185167</v>
+        <v>-0.01839011059895742</v>
       </c>
       <c r="DE5" s="1" t="n">
-        <v>0.1750020967407496</v>
+        <v>0.1316453037193762</v>
       </c>
       <c r="DG5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="DH5" s="1" t="n">
-        <v>0.006405679675260205</v>
+        <v>0.007952191066237801</v>
       </c>
       <c r="DI5" s="1" t="n">
-        <v>0.02488849530808352</v>
+        <v>-0.009120165301185167</v>
       </c>
       <c r="DJ5" s="1" t="n">
-        <v>0.2094574112430581</v>
+        <v>0.1750020967407496</v>
       </c>
       <c r="DL5" s="1" t="n">
         <v>55</v>
       </c>
       <c r="DM5" s="1" t="n">
+        <v>0.006405679675260205</v>
+      </c>
+      <c r="DN5" s="1" t="n">
+        <v>0.02488849530808352</v>
+      </c>
+      <c r="DO5" s="1" t="n">
+        <v>0.2094574112430581</v>
+      </c>
+      <c r="DQ5" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="DR5" s="1" t="n">
         <v>-0.002573084440307332</v>
       </c>
-      <c r="DN5" s="1" t="n">
+      <c r="DS5" s="1" t="n">
         <v>-0.04135024703546793</v>
       </c>
-      <c r="DO5" s="1" t="n">
+      <c r="DT5" s="1" t="n">
         <v>0.1950155801165747</v>
       </c>
     </row>
@@ -2172,276 +2172,288 @@
         <v>60</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.02070869782508045</v>
+        <v>-0.003456847423820992</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.004593661087861294</v>
+        <v>-0.002227347605002056</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.220200819484983</v>
+        <v>0.2020772373933137</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>-0.03402079954712877</v>
+        <v>0.02070869782508045</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>-0.001379210321781502</v>
+        <v>0.004593661087861294</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0.04846013078385025</v>
+        <v>0.220200819484983</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>-0.003621824570150568</v>
+        <v>-0.03402079954712877</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.007540372631205376</v>
+        <v>-0.001379210321781502</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0.07478394539879313</v>
+        <v>0.04846013078385025</v>
       </c>
       <c r="U6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>-0.002850975932965121</v>
+        <v>-0.003621824570150568</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.006721729490713159</v>
+        <v>0.007540372631205376</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.06722105301640745</v>
+        <v>0.07478394539879313</v>
       </c>
       <c r="Z6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>-0.01010198947327007</v>
+        <v>-0.002850975932965121</v>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>0.03162908541652801</v>
+        <v>-0.006721729490713159</v>
       </c>
       <c r="AC6" s="1" t="n">
-        <v>0.1055823936477954</v>
+        <v>0.06722105301640745</v>
       </c>
       <c r="AE6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-0.02133658024295531</v>
+        <v>-0.01010198947327007</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.004211126955795758</v>
+        <v>0.03162908541652801</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.08373522027099568</v>
+        <v>0.1055823936477954</v>
       </c>
       <c r="AJ6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>-0.01241977432832534</v>
+        <v>-0.02133658024295531</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>-0.0156174703809058</v>
+        <v>0.004211126955795758</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>0.1130564508656784</v>
+        <v>0.08373522027099568</v>
       </c>
       <c r="AO6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AP6" s="1" t="n">
-        <v>-0.005753592521592311</v>
+        <v>-0.01241977432832534</v>
       </c>
       <c r="AQ6" s="1" t="n">
-        <v>0.01918995020668924</v>
+        <v>-0.0156174703809058</v>
       </c>
       <c r="AR6" s="1" t="n">
-        <v>0.09195471091237348</v>
+        <v>0.1130564508656784</v>
       </c>
       <c r="AT6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AU6" s="1" t="n">
-        <v>-0.008933198454678045</v>
+        <v>-0.005753592521592311</v>
       </c>
       <c r="AV6" s="1" t="n">
-        <v>0.009720761378210313</v>
+        <v>0.01918995020668924</v>
       </c>
       <c r="AW6" s="1" t="n">
-        <v>0.179996865786901</v>
+        <v>0.09195471091237348</v>
       </c>
       <c r="AY6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AZ6" s="1" t="n">
-        <v>0.004241678521678284</v>
+        <v>-0.008933198454678045</v>
       </c>
       <c r="BA6" s="1" t="n">
-        <v>0.01142318250493631</v>
+        <v>0.009720761378210313</v>
       </c>
       <c r="BB6" s="1" t="n">
-        <v>0.1618702358701508</v>
+        <v>0.179996865786901</v>
       </c>
       <c r="BD6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="BE6" s="1" t="n">
-        <v>-0.02698476397439453</v>
+        <v>0.004241678521678284</v>
       </c>
       <c r="BF6" s="1" t="n">
-        <v>-0.003206798629817101</v>
+        <v>0.01142318250493631</v>
       </c>
       <c r="BG6" s="1" t="n">
-        <v>0.1378193778033187</v>
+        <v>0.1618702358701508</v>
       </c>
       <c r="BI6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="BJ6" s="1" t="n">
-        <v>-0.007565357870634504</v>
+        <v>-0.02698476397439453</v>
       </c>
       <c r="BK6" s="1" t="n">
-        <v>-0.006954128942625173</v>
+        <v>-0.003206798629817101</v>
       </c>
       <c r="BL6" s="1" t="n">
-        <v>0.1615522365564953</v>
+        <v>0.1378193778033187</v>
       </c>
       <c r="BN6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="BO6" s="1" t="n">
-        <v>-0.005331071625450933</v>
+        <v>-0.007565357870634504</v>
       </c>
       <c r="BP6" s="1" t="n">
-        <v>0.02366840924904585</v>
+        <v>-0.006954128942625173</v>
       </c>
       <c r="BQ6" s="1" t="n">
-        <v>0.07472779144873451</v>
+        <v>0.1615522365564953</v>
       </c>
       <c r="BS6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="BT6" s="1" t="n">
-        <v>0.003086876185566793</v>
+        <v>-0.005331071625450933</v>
       </c>
       <c r="BU6" s="1" t="n">
-        <v>-0.001713542236759687</v>
+        <v>0.02366840924904585</v>
       </c>
       <c r="BV6" s="1" t="n">
-        <v>0.03749349863423147</v>
+        <v>0.07472779144873451</v>
       </c>
       <c r="BX6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="BY6" s="1" t="n">
-        <v>0.01472488094044531</v>
+        <v>0.003086876185566793</v>
       </c>
       <c r="BZ6" s="1" t="n">
-        <v>-0.003844710982174413</v>
+        <v>-0.001713542236759687</v>
       </c>
       <c r="CA6" s="1" t="n">
-        <v>0.03184687440125234</v>
+        <v>0.03749349863423147</v>
       </c>
       <c r="CC6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="CD6" s="1" t="n">
-        <v>-0.02306233823200769</v>
+        <v>0.01472488094044531</v>
       </c>
       <c r="CE6" s="1" t="n">
-        <v>0.02109566889190827</v>
+        <v>-0.003844710982174413</v>
       </c>
       <c r="CF6" s="1" t="n">
-        <v>0.06194577792989096</v>
+        <v>0.03184687440125234</v>
       </c>
       <c r="CH6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="CI6" s="1" t="n">
-        <v>0.003717702608520816</v>
+        <v>-0.02306233823200769</v>
       </c>
       <c r="CJ6" s="1" t="n">
-        <v>0.02396127782835702</v>
+        <v>0.02109566889190827</v>
       </c>
       <c r="CK6" s="1" t="n">
-        <v>0.09635042757120045</v>
+        <v>0.06194577792989096</v>
       </c>
       <c r="CM6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="CN6" s="1" t="n">
-        <v>-0.006778635622566882</v>
+        <v>0.003717702608520816</v>
       </c>
       <c r="CO6" s="1" t="n">
-        <v>0.006828438020268402</v>
+        <v>0.02396127782835702</v>
       </c>
       <c r="CP6" s="1" t="n">
-        <v>0.1038343872700652</v>
+        <v>0.09635042757120045</v>
       </c>
       <c r="CR6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="CS6" s="1" t="n">
-        <v>0.009996542942359252</v>
+        <v>-0.006778635622566882</v>
       </c>
       <c r="CT6" s="1" t="n">
-        <v>0.02227967142481733</v>
+        <v>0.006828438020268402</v>
       </c>
       <c r="CU6" s="1" t="n">
-        <v>0.09536540729376412</v>
+        <v>0.1038343872700652</v>
       </c>
       <c r="CW6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="CX6" s="1" t="n">
-        <v>-0.01948180575426942</v>
+        <v>0.009996542942359252</v>
       </c>
       <c r="CY6" s="1" t="n">
-        <v>0.01751105261331277</v>
+        <v>0.02227967142481733</v>
       </c>
       <c r="CZ6" s="1" t="n">
-        <v>0.1222875224180804</v>
+        <v>0.09536540729376412</v>
       </c>
       <c r="DB6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="DC6" s="1" t="n">
-        <v>0.01361893102464869</v>
+        <v>-0.01948180575426942</v>
       </c>
       <c r="DD6" s="1" t="n">
-        <v>0.003802410044388227</v>
+        <v>0.01751105261331277</v>
       </c>
       <c r="DE6" s="1" t="n">
-        <v>0.1262140322381408</v>
+        <v>0.1222875224180804</v>
       </c>
       <c r="DG6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="DH6" s="1" t="n">
-        <v>-0.002737481191481585</v>
+        <v>0.01361893102464869</v>
       </c>
       <c r="DI6" s="1" t="n">
-        <v>-0.00256327377266826</v>
+        <v>0.003802410044388227</v>
       </c>
       <c r="DJ6" s="1" t="n">
-        <v>0.1604495806447538</v>
+        <v>0.1262140322381408</v>
       </c>
       <c r="DL6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="DM6" s="1" t="n">
+        <v>-0.002737481191481585</v>
+      </c>
+      <c r="DN6" s="1" t="n">
+        <v>-0.00256327377266826</v>
+      </c>
+      <c r="DO6" s="1" t="n">
+        <v>0.1604495806447538</v>
+      </c>
+      <c r="DQ6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="DR6" s="1" t="n">
         <v>-0.007931643266651576</v>
       </c>
-      <c r="DN6" s="1" t="n">
+      <c r="DS6" s="1" t="n">
         <v>0.002582357186657073</v>
       </c>
-      <c r="DO6" s="1" t="n">
+      <c r="DT6" s="1" t="n">
         <v>0.1722305094121075</v>
       </c>
     </row>
@@ -2450,276 +2462,288 @@
         <v>65</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>-0.009732431081924465</v>
+        <v>0.0137485118958025</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>-0.001946464019740652</v>
+        <v>-0.007068535091994232</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.1787893862747822</v>
+        <v>0.1456460507981424</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>-0.01395886745971329</v>
+        <v>-0.009732431081924465</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.0136553790954325</v>
+        <v>-0.001946464019740652</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.04617440614626094</v>
+        <v>0.1787893862747822</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>-0.003037861578736269</v>
+        <v>-0.01395886745971329</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.01499132546390385</v>
+        <v>0.0136553790954325</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.06724532528537147</v>
+        <v>0.04617440614626094</v>
       </c>
       <c r="U7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>-0.004449411949242874</v>
+        <v>-0.003037861578736269</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.003633531146724776</v>
+        <v>0.01499132546390385</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.08981437738251076</v>
+        <v>0.06724532528537147</v>
       </c>
       <c r="Z7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>0.02623929933137313</v>
+        <v>-0.004449411949242874</v>
       </c>
       <c r="AB7" s="1" t="n">
-        <v>-0.02170679334825806</v>
+        <v>-0.003633531146724776</v>
       </c>
       <c r="AC7" s="1" t="n">
-        <v>-0.0107160280065047</v>
+        <v>0.08981437738251076</v>
       </c>
       <c r="AE7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-0.01541388329209201</v>
+        <v>0.02623929933137313</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.01592659808382119</v>
+        <v>-0.02170679334825806</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.08170301535191915</v>
+        <v>-0.0107160280065047</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>-0.006806590791717973</v>
+        <v>-0.01541388329209201</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>-0.02959687928779254</v>
+        <v>0.01592659808382119</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>0.08458966628544641</v>
+        <v>0.08170301535191915</v>
       </c>
       <c r="AO7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AP7" s="1" t="n">
-        <v>0.01313924113200903</v>
+        <v>-0.006806590791717973</v>
       </c>
       <c r="AQ7" s="1" t="n">
-        <v>0.001619253130483252</v>
+        <v>-0.02959687928779254</v>
       </c>
       <c r="AR7" s="1" t="n">
-        <v>0.128745100924415</v>
+        <v>0.08458966628544641</v>
       </c>
       <c r="AT7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AU7" s="1" t="n">
-        <v>-0.00795262399025681</v>
+        <v>0.01313924113200903</v>
       </c>
       <c r="AV7" s="1" t="n">
-        <v>-0.01111613900621818</v>
+        <v>0.001619253130483252</v>
       </c>
       <c r="AW7" s="1" t="n">
-        <v>0.1087421856953962</v>
+        <v>0.128745100924415</v>
       </c>
       <c r="AY7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="AZ7" s="1" t="n">
-        <v>0.01481650919695327</v>
+        <v>-0.00795262399025681</v>
       </c>
       <c r="BA7" s="1" t="n">
-        <v>0.008641511713885056</v>
+        <v>-0.01111613900621818</v>
       </c>
       <c r="BB7" s="1" t="n">
-        <v>0.1378896662241411</v>
+        <v>0.1087421856953962</v>
       </c>
       <c r="BD7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BE7" s="1" t="n">
-        <v>0.001363276305694216</v>
+        <v>0.01481650919695327</v>
       </c>
       <c r="BF7" s="1" t="n">
-        <v>-0.02363942405058542</v>
+        <v>0.008641511713885056</v>
       </c>
       <c r="BG7" s="1" t="n">
-        <v>0.1167990811511547</v>
+        <v>0.1378896662241411</v>
       </c>
       <c r="BI7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BJ7" s="1" t="n">
-        <v>0.02146168415573633</v>
+        <v>0.001363276305694216</v>
       </c>
       <c r="BK7" s="1" t="n">
-        <v>0.00850141109906242</v>
+        <v>-0.02363942405058542</v>
       </c>
       <c r="BL7" s="1" t="n">
-        <v>0.1321357338423624</v>
+        <v>0.1167990811511547</v>
       </c>
       <c r="BN7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BO7" s="1" t="n">
-        <v>0.01027991949705038</v>
+        <v>0.02146168415573633</v>
       </c>
       <c r="BP7" s="1" t="n">
-        <v>-0.00305502256557182</v>
+        <v>0.00850141109906242</v>
       </c>
       <c r="BQ7" s="1" t="n">
-        <v>0.03992926276615606</v>
+        <v>0.1321357338423624</v>
       </c>
       <c r="BS7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BT7" s="1" t="n">
-        <v>-0.002344494922530603</v>
+        <v>0.01027991949705038</v>
       </c>
       <c r="BU7" s="1" t="n">
-        <v>-0.01986347733292706</v>
+        <v>-0.00305502256557182</v>
       </c>
       <c r="BV7" s="1" t="n">
-        <v>0.03866681008489264</v>
+        <v>0.03992926276615606</v>
       </c>
       <c r="BX7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="BY7" s="1" t="n">
-        <v>-0.02801272812829057</v>
+        <v>-0.002344494922530603</v>
       </c>
       <c r="BZ7" s="1" t="n">
-        <v>6.256937777068453e-05</v>
+        <v>-0.01986347733292706</v>
       </c>
       <c r="CA7" s="1" t="n">
-        <v>0.06487393849844851</v>
+        <v>0.03866681008489264</v>
       </c>
       <c r="CC7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="CD7" s="1" t="n">
-        <v>-0.001867715367271817</v>
+        <v>-0.02801272812829057</v>
       </c>
       <c r="CE7" s="1" t="n">
-        <v>0.008464812085136053</v>
+        <v>6.256937777068453e-05</v>
       </c>
       <c r="CF7" s="1" t="n">
-        <v>0.02792513432833146</v>
+        <v>0.06487393849844851</v>
       </c>
       <c r="CH7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="CI7" s="1" t="n">
-        <v>0.001565089798061583</v>
+        <v>-0.001867715367271817</v>
       </c>
       <c r="CJ7" s="1" t="n">
-        <v>0.006961233960618448</v>
+        <v>0.008464812085136053</v>
       </c>
       <c r="CK7" s="1" t="n">
-        <v>0.04970313745601984</v>
+        <v>0.02792513432833146</v>
       </c>
       <c r="CM7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="CN7" s="1" t="n">
-        <v>0.004717858346579999</v>
+        <v>0.001565089798061583</v>
       </c>
       <c r="CO7" s="1" t="n">
-        <v>0.02417919709360802</v>
+        <v>0.006961233960618448</v>
       </c>
       <c r="CP7" s="1" t="n">
-        <v>0.1025910560424119</v>
+        <v>0.04970313745601984</v>
       </c>
       <c r="CR7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="CS7" s="1" t="n">
-        <v>-0.004139814686466302</v>
+        <v>0.004717858346579999</v>
       </c>
       <c r="CT7" s="1" t="n">
-        <v>0.003598968219422257</v>
+        <v>0.02417919709360802</v>
       </c>
       <c r="CU7" s="1" t="n">
-        <v>0.08113829461636911</v>
+        <v>0.1025910560424119</v>
       </c>
       <c r="CW7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="CX7" s="1" t="n">
-        <v>-0.007986646977412784</v>
+        <v>-0.004139814686466302</v>
       </c>
       <c r="CY7" s="1" t="n">
-        <v>0.0006254249348463332</v>
+        <v>0.003598968219422257</v>
       </c>
       <c r="CZ7" s="1" t="n">
-        <v>0.07678087202267767</v>
+        <v>0.08113829461636911</v>
       </c>
       <c r="DB7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="DC7" s="1" t="n">
-        <v>0.02132212698481754</v>
+        <v>-0.007986646977412784</v>
       </c>
       <c r="DD7" s="1" t="n">
-        <v>0.01091917316090816</v>
+        <v>0.0006254249348463332</v>
       </c>
       <c r="DE7" s="1" t="n">
-        <v>0.09077628125756174</v>
+        <v>0.07678087202267767</v>
       </c>
       <c r="DG7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="DH7" s="1" t="n">
-        <v>0.01193627130198294</v>
+        <v>0.02132212698481754</v>
       </c>
       <c r="DI7" s="1" t="n">
-        <v>0.01287035153464918</v>
+        <v>0.01091917316090816</v>
       </c>
       <c r="DJ7" s="1" t="n">
-        <v>0.1330653567431483</v>
+        <v>0.09077628125756174</v>
       </c>
       <c r="DL7" s="1" t="n">
         <v>65</v>
       </c>
       <c r="DM7" s="1" t="n">
+        <v>0.01193627130198294</v>
+      </c>
+      <c r="DN7" s="1" t="n">
+        <v>0.01287035153464918</v>
+      </c>
+      <c r="DO7" s="1" t="n">
+        <v>0.1330653567431483</v>
+      </c>
+      <c r="DQ7" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="DR7" s="1" t="n">
         <v>-0.009094589629011874</v>
       </c>
-      <c r="DN7" s="1" t="n">
+      <c r="DS7" s="1" t="n">
         <v>-0.0134307703551884</v>
       </c>
-      <c r="DO7" s="1" t="n">
+      <c r="DT7" s="1" t="n">
         <v>0.09289508181444536</v>
       </c>
     </row>
@@ -2728,391 +2752,409 @@
         <v>70</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>-0.01421289345135558</v>
+        <v>0.001841942391920296</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>-0.009367203522384928</v>
+        <v>0.02792645469112807</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.08905449821775346</v>
+        <v>0.08545872655625926</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>-0.009047188162601373</v>
+        <v>-0.01421289345135558</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>-0.000448764364379245</v>
+        <v>-0.009367203522384928</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.01306514752329763</v>
+        <v>0.08905449821775346</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>0.1764124784968769</v>
+        <v>-0.009047188162601373</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.01824670026551251</v>
+        <v>-0.000448764364379245</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.05225875963186094</v>
+        <v>0.01306514752329763</v>
       </c>
       <c r="U8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.02726733555282938</v>
+        <v>0.1764124784968769</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.01617331792470467</v>
+        <v>-0.01824670026551251</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>0.03579289556993971</v>
+        <v>-0.05225875963186094</v>
       </c>
       <c r="Z8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>-0.001391105216039959</v>
+        <v>0.02726733555282938</v>
       </c>
       <c r="AB8" s="1" t="n">
-        <v>0.0002584045656739481</v>
+        <v>0.01617331792470467</v>
       </c>
       <c r="AC8" s="1" t="n">
-        <v>0.06248502077833966</v>
+        <v>0.03579289556993971</v>
       </c>
       <c r="AE8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>-0.01649875135478685</v>
+        <v>-0.001391105216039959</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.01238199674276663</v>
+        <v>0.0002584045656739481</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.07228218445099954</v>
+        <v>0.06248502077833966</v>
       </c>
       <c r="AJ8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>-0.007320774066516129</v>
+        <v>-0.01649875135478685</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>-0.0002018232228928715</v>
+        <v>0.01238199674276663</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>0.05794356593002564</v>
+        <v>0.07228218445099954</v>
       </c>
       <c r="AO8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AP8" s="1" t="n">
-        <v>0.007534924322464429</v>
+        <v>-0.007320774066516129</v>
       </c>
       <c r="AQ8" s="1" t="n">
-        <v>0.02438732463464188</v>
+        <v>-0.0002018232228928715</v>
       </c>
       <c r="AR8" s="1" t="n">
-        <v>0.08074326326720013</v>
+        <v>0.05794356593002564</v>
       </c>
       <c r="AT8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AU8" s="1" t="n">
-        <v>-0.01448831555608449</v>
+        <v>0.007534924322464429</v>
       </c>
       <c r="AV8" s="1" t="n">
-        <v>-0.008613510813824997</v>
+        <v>0.02438732463464188</v>
       </c>
       <c r="AW8" s="1" t="n">
-        <v>0.07736702876049241</v>
+        <v>0.08074326326720013</v>
       </c>
       <c r="AY8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="AZ8" s="1" t="n">
-        <v>-0.08032396494420987</v>
+        <v>-0.01448831555608449</v>
       </c>
       <c r="BA8" s="1" t="n">
-        <v>0.4887638463671811</v>
+        <v>-0.008613510813824997</v>
       </c>
       <c r="BB8" s="1" t="n">
-        <v>-1.408464629683571</v>
+        <v>0.07736702876049241</v>
       </c>
       <c r="BD8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="BE8" s="1" t="n">
-        <v>0.02617458236118154</v>
+        <v>-0.08032396494420987</v>
       </c>
       <c r="BF8" s="1" t="n">
-        <v>0.01144253560473129</v>
+        <v>0.4887638463671811</v>
       </c>
       <c r="BG8" s="1" t="n">
-        <v>0.09462765066012714</v>
+        <v>-1.408464629683571</v>
       </c>
       <c r="BI8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="BJ8" s="1" t="n">
-        <v>-0.001985004456465337</v>
+        <v>0.02617458236118154</v>
       </c>
       <c r="BK8" s="1" t="n">
-        <v>-0.02185198246040605</v>
+        <v>0.01144253560473129</v>
       </c>
       <c r="BL8" s="1" t="n">
-        <v>0.07090941340799736</v>
+        <v>0.09462765066012714</v>
       </c>
       <c r="BN8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="BO8" s="1" t="n">
-        <v>0.008238568292881915</v>
+        <v>-0.001985004456465337</v>
       </c>
       <c r="BP8" s="1" t="n">
-        <v>-0.0178939076511783</v>
+        <v>-0.02185198246040605</v>
       </c>
       <c r="BQ8" s="1" t="n">
-        <v>0.03538403703214212</v>
+        <v>0.07090941340799736</v>
       </c>
       <c r="BS8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="BT8" s="1" t="n">
-        <v>0.01757092802370026</v>
+        <v>0.008238568292881915</v>
       </c>
       <c r="BU8" s="1" t="n">
-        <v>-0.008245533663457389</v>
+        <v>-0.0178939076511783</v>
       </c>
       <c r="BV8" s="1" t="n">
-        <v>-0.0053282003695469</v>
+        <v>0.03538403703214212</v>
       </c>
       <c r="BX8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="BY8" s="1" t="n">
-        <v>-0.01009303479490083</v>
+        <v>0.01757092802370026</v>
       </c>
       <c r="BZ8" s="1" t="n">
-        <v>0.01638587215432454</v>
+        <v>-0.008245533663457389</v>
       </c>
       <c r="CA8" s="1" t="n">
-        <v>-0.003019543588821829</v>
+        <v>-0.0053282003695469</v>
       </c>
       <c r="CC8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="CD8" s="1" t="n">
-        <v>0.005922859219386296</v>
+        <v>-0.01009303479490083</v>
       </c>
       <c r="CE8" s="1" t="n">
-        <v>-0.02363319007144578</v>
+        <v>0.01638587215432454</v>
       </c>
       <c r="CF8" s="1" t="n">
-        <v>0.04023402449546991</v>
+        <v>-0.003019543588821829</v>
       </c>
       <c r="CH8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="CI8" s="1" t="n">
-        <v>-0.02860899672707926</v>
+        <v>0.005922859219386296</v>
       </c>
       <c r="CJ8" s="1" t="n">
-        <v>0.004994777243799797</v>
+        <v>-0.02363319007144578</v>
       </c>
       <c r="CK8" s="1" t="n">
-        <v>0.05024184379398228</v>
+        <v>0.04023402449546991</v>
       </c>
       <c r="CM8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="CN8" s="1" t="n">
-        <v>-0.01543977928503204</v>
+        <v>-0.02860899672707926</v>
       </c>
       <c r="CO8" s="1" t="n">
-        <v>0.01105865934262429</v>
+        <v>0.004994777243799797</v>
       </c>
       <c r="CP8" s="1" t="n">
-        <v>0.03237162529704879</v>
+        <v>0.05024184379398228</v>
       </c>
       <c r="CR8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="CS8" s="1" t="n">
-        <v>-0.0006338649554856498</v>
+        <v>-0.01543977928503204</v>
       </c>
       <c r="CT8" s="1" t="n">
-        <v>-0.01869996318705289</v>
+        <v>0.01105865934262429</v>
       </c>
       <c r="CU8" s="1" t="n">
-        <v>0.02050760194381995</v>
+        <v>0.03237162529704879</v>
       </c>
       <c r="CW8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="CX8" s="1" t="n">
-        <v>0.02403545838948736</v>
+        <v>-0.0006338649554856498</v>
       </c>
       <c r="CY8" s="1" t="n">
-        <v>0.0101217589041978</v>
+        <v>-0.01869996318705289</v>
       </c>
       <c r="CZ8" s="1" t="n">
-        <v>0.04162204018510455</v>
+        <v>0.02050760194381995</v>
       </c>
       <c r="DB8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="DC8" s="1" t="n">
-        <v>-0.001446309213141073</v>
+        <v>0.02403545838948736</v>
       </c>
       <c r="DD8" s="1" t="n">
-        <v>-0.01488307393061329</v>
+        <v>0.0101217589041978</v>
       </c>
       <c r="DE8" s="1" t="n">
-        <v>0.07627728446728112</v>
+        <v>0.04162204018510455</v>
       </c>
       <c r="DG8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="DH8" s="1" t="n">
-        <v>-0.01780213666985199</v>
+        <v>-0.001446309213141073</v>
       </c>
       <c r="DI8" s="1" t="n">
-        <v>0.004882386978562732</v>
+        <v>-0.01488307393061329</v>
       </c>
       <c r="DJ8" s="1" t="n">
-        <v>0.06352649924690824</v>
+        <v>0.07627728446728112</v>
       </c>
       <c r="DL8" s="1" t="n">
         <v>70</v>
       </c>
       <c r="DM8" s="1" t="n">
+        <v>-0.01780213666985199</v>
+      </c>
+      <c r="DN8" s="1" t="n">
+        <v>0.004882386978562732</v>
+      </c>
+      <c r="DO8" s="1" t="n">
+        <v>0.06352649924690824</v>
+      </c>
+      <c r="DQ8" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="DR8" s="1" t="n">
         <v>0.01244630617914066</v>
       </c>
-      <c r="DN8" s="1" t="n">
+      <c r="DS8" s="1" t="n">
         <v>0.03083806441310728</v>
       </c>
-      <c r="DO8" s="1" t="n">
+      <c r="DT8" s="1" t="n">
         <v>0.09199043420759892</v>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="F10" s="1" t="inlineStr">
         <is>
+          <t>rad31mm</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
           <t>rad30mm</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="P10" s="1" t="inlineStr">
         <is>
           <t>rad40mm</t>
         </is>
       </c>
-      <c r="P10" s="1" t="inlineStr">
+      <c r="U10" s="1" t="inlineStr">
         <is>
           <t>rad39mm</t>
         </is>
       </c>
-      <c r="U10" s="1" t="inlineStr">
+      <c r="Z10" s="1" t="inlineStr">
         <is>
           <t>rad38mm</t>
         </is>
       </c>
-      <c r="Z10" s="1" t="inlineStr">
+      <c r="AE10" s="1" t="inlineStr">
         <is>
           <t>rad37mm</t>
         </is>
       </c>
-      <c r="AE10" s="1" t="inlineStr">
+      <c r="AJ10" s="1" t="inlineStr">
         <is>
           <t>rad36mm</t>
         </is>
       </c>
-      <c r="AJ10" s="1" t="inlineStr">
+      <c r="AO10" s="1" t="inlineStr">
         <is>
           <t>rad35mm</t>
         </is>
       </c>
-      <c r="AO10" s="1" t="inlineStr">
+      <c r="AT10" s="1" t="inlineStr">
         <is>
           <t>rad34mm</t>
         </is>
       </c>
-      <c r="AT10" s="1" t="inlineStr">
+      <c r="AY10" s="1" t="inlineStr">
         <is>
           <t>rad33mm</t>
         </is>
       </c>
-      <c r="AY10" s="1" t="inlineStr">
+      <c r="BD10" s="1" t="inlineStr">
         <is>
           <t>rad32mm</t>
         </is>
       </c>
-      <c r="BD10" s="1" t="inlineStr">
+      <c r="BI10" s="1" t="inlineStr">
         <is>
           <t>rad31mm</t>
         </is>
       </c>
-      <c r="BI10" s="1" t="inlineStr">
+      <c r="BN10" s="1" t="inlineStr">
         <is>
           <t>rad30mm</t>
         </is>
       </c>
-      <c r="BN10" s="1" t="inlineStr">
+      <c r="BS10" s="1" t="inlineStr">
         <is>
           <t>rad40mm</t>
         </is>
       </c>
-      <c r="BS10" s="1" t="inlineStr">
+      <c r="BX10" s="1" t="inlineStr">
         <is>
           <t>rad39mm</t>
         </is>
       </c>
-      <c r="BX10" s="1" t="inlineStr">
+      <c r="CC10" s="1" t="inlineStr">
         <is>
           <t>rad38mm</t>
         </is>
       </c>
-      <c r="CC10" s="1" t="inlineStr">
+      <c r="CH10" s="1" t="inlineStr">
         <is>
           <t>rad37mm</t>
         </is>
       </c>
-      <c r="CH10" s="1" t="inlineStr">
+      <c r="CM10" s="1" t="inlineStr">
         <is>
           <t>rad36mm</t>
         </is>
       </c>
-      <c r="CM10" s="1" t="inlineStr">
+      <c r="CR10" s="1" t="inlineStr">
         <is>
           <t>rad35mm</t>
         </is>
       </c>
-      <c r="CR10" s="1" t="inlineStr">
+      <c r="CW10" s="1" t="inlineStr">
         <is>
           <t>rad34mm</t>
         </is>
       </c>
-      <c r="CW10" s="1" t="inlineStr">
+      <c r="DB10" s="1" t="inlineStr">
         <is>
           <t>rad33mm</t>
         </is>
       </c>
-      <c r="DB10" s="1" t="inlineStr">
+      <c r="DG10" s="1" t="inlineStr">
         <is>
           <t>rad32mm</t>
         </is>
       </c>
-      <c r="DG10" s="1" t="inlineStr">
+      <c r="DL10" s="1" t="inlineStr">
         <is>
           <t>rad31mm</t>
         </is>
       </c>
-      <c r="DL10" s="1" t="inlineStr">
+      <c r="DQ10" s="1" t="inlineStr">
         <is>
           <t>rad30mm</t>
         </is>
@@ -3126,110 +3168,115 @@
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
+          <t>mag_num8</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="P11" s="1" t="inlineStr">
+      <c r="U11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="U11" s="1" t="inlineStr">
+      <c r="Z11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="Z11" s="1" t="inlineStr">
+      <c r="AE11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="AE11" s="1" t="inlineStr">
+      <c r="AJ11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="AJ11" s="1" t="inlineStr">
+      <c r="AO11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="AO11" s="1" t="inlineStr">
+      <c r="AT11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="AT11" s="1" t="inlineStr">
+      <c r="AY11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="AY11" s="1" t="inlineStr">
+      <c r="BD11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="BD11" s="1" t="inlineStr">
+      <c r="BI11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="BI11" s="1" t="inlineStr">
+      <c r="BN11" s="1" t="inlineStr">
         <is>
           <t>mag_num7</t>
         </is>
       </c>
-      <c r="BN11" s="1" t="inlineStr">
+      <c r="BS11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="BS11" s="1" t="inlineStr">
+      <c r="BX11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="BX11" s="1" t="inlineStr">
+      <c r="CC11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="CC11" s="1" t="inlineStr">
+      <c r="CH11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="CH11" s="1" t="inlineStr">
+      <c r="CM11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="CM11" s="1" t="inlineStr">
+      <c r="CR11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="CR11" s="1" t="inlineStr">
+      <c r="CW11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="CW11" s="1" t="inlineStr">
+      <c r="DB11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="DB11" s="1" t="inlineStr">
+      <c r="DG11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="DG11" s="1" t="inlineStr">
+      <c r="DL11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
       </c>
-      <c r="DL11" s="1" t="inlineStr">
+      <c r="DQ11" s="1" t="inlineStr">
         <is>
           <t>mag_num6</t>
         </is>
@@ -33312,6 +33359,24 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>dis:60</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>rad:31</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>mag_num:8</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
         <v>60</v>
       </c>
@@ -37352,6 +37417,24 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>dis:65</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>rad:31</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>mag_num:8</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="n">
         <v>65</v>
       </c>
@@ -41287,6 +41370,24 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>dis:70</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>rad:31</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>mag_num:8</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="n">
         <v>70</v>
       </c>

--- a/koma_sim3_py.xlsx
+++ b/koma_sim3_py.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EF11"/>
+  <dimension ref="A1:EE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -9482,6 +9482,7 @@
         <v>-0.05753055184491207</v>
       </c>
     </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
@@ -16688,7 +16689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -16933,6 +16934,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16944,7 +16946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -17189,6 +17191,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/koma_sim3_py.xlsx
+++ b/koma_sim3_py.xlsx
@@ -16522,28 +16522,28 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AJ13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY13" s="1" t="n">
         <v>60</v>
-      </c>
-      <c r="AO13" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT13" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="AY13" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="BD13" s="1" t="n">
         <v>0</v>
@@ -16561,22 +16561,22 @@
         <v>0</v>
       </c>
       <c r="CC13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CW13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="DB13" s="1" t="n">
         <v>55</v>
-      </c>
-      <c r="CH13" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="CM13" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="CR13" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="CW13" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="DB13" s="1" t="n">
-        <v>65</v>
       </c>
       <c r="DG13" s="1" t="n">
         <v>0</v>
@@ -16600,16 +16600,16 @@
         <v>0</v>
       </c>
       <c r="EP13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" s="1" t="n">
         <v>50</v>
-      </c>
-      <c r="EU13" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="EZ13" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="FE13" s="1" t="n">
-        <v>55</v>
       </c>
       <c r="FJ13" s="1" t="n">
         <v>0</v>
@@ -16636,13 +16636,13 @@
         <v>0</v>
       </c>
       <c r="GX13" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="HC13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="HH13" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="HM13" s="1" t="n">
         <v>0</v>
@@ -16825,10 +16825,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -16863,7 +16863,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -16901,16 +16901,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>60</v>
-      </c>
       <c r="E7" s="1" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0</v>
@@ -17044,13 +17044,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0</v>
@@ -17082,16 +17082,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -17120,22 +17120,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0</v>
@@ -17158,28 +17158,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>45</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>0</v>

--- a/koma_sim3_py.xlsx
+++ b/koma_sim3_py.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="dis" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="data_x" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="data_z" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="heatmap_x" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="heatmap_z" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="check" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="others" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="heatmap_xz" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="heatmap_x" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="heatmap_z" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="check" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="others" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -447,11 +448,11 @@
   </sheetPr>
   <dimension ref="A1:EE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3573,13 +3574,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO11"/>
+  <dimension ref="A1:JO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -10035,6 +10036,173 @@
         <is>
           <t>mag_num1</t>
         </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BN13" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BS13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="BX13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CH13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="CM13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CR13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="CW13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="DB13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="DG13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="DL13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="DQ13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="DV13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="EA13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="EF13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="EK13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="EP13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="EU13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="EZ13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="FJ13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="FO13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="FT13" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="FY13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="GD13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="GI13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="GN13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="GS13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="GX13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HC13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HH13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HM13" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HW13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IB13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IG13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IL13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="IQ13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="IV13" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="JA13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JF13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JK13" s="1" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -10054,7 +10222,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -16522,28 +16690,28 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE13" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AT13" s="1" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY13" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1" t="n">
         <v>0</v>
@@ -16561,22 +16729,22 @@
         <v>0</v>
       </c>
       <c r="CC13" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="CH13" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="CM13" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="CR13" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="CW13" s="1" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="DB13" s="1" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="DG13" s="1" t="n">
         <v>0</v>
@@ -16600,16 +16768,16 @@
         <v>0</v>
       </c>
       <c r="EP13" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EU13" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="EZ13" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="FE13" s="1" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="FJ13" s="1" t="n">
         <v>0</v>
@@ -16636,13 +16804,13 @@
         <v>0</v>
       </c>
       <c r="GX13" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HC13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="HH13" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HM13" s="1" t="n">
         <v>0</v>
@@ -16692,10 +16860,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="C1" s="1" t="inlineStr">
@@ -16746,19 +16914,19 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -16784,10 +16952,10 @@
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -16799,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -16825,10 +16993,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -16860,7 +17028,7 @@
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -16898,10 +17066,10 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
@@ -16942,17 +17110,273 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>mag_num</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:BE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="C1" s="1" t="inlineStr">
@@ -16995,6 +17419,50 @@
       <c r="M2" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
+      <c r="AX2" s="1" t="n"/>
+      <c r="AY2" s="1" t="n"/>
+      <c r="AZ2" s="1" t="n"/>
+      <c r="BA2" s="1" t="n"/>
+      <c r="BB2" s="1" t="n"/>
+      <c r="BC2" s="1" t="n"/>
+      <c r="BD2" s="1" t="n"/>
+      <c r="BE2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -17003,31 +17471,31 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>0</v>
@@ -17038,28 +17506,72 @@
       <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
+      <c r="AY3" s="1" t="n"/>
+      <c r="AZ3" s="1" t="n"/>
+      <c r="BA3" s="1" t="n"/>
+      <c r="BB3" s="1" t="n"/>
+      <c r="BC3" s="1" t="n"/>
+      <c r="BD3" s="1" t="n"/>
+      <c r="BE3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0</v>
@@ -17082,16 +17594,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>50</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -17117,13 +17629,13 @@
     </row>
     <row r="6">
       <c r="B6" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>50</v>
@@ -17155,22 +17667,22 @@
     </row>
     <row r="7">
       <c r="B7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -17198,7 +17710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17210,7 +17722,7 @@
       <selection activeCell="DV16" sqref="DV16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -48667,7 +49179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -48679,7 +49191,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
